--- a/ch7/range_insert.xlsx
+++ b/ch7/range_insert.xlsx
@@ -430,52 +430,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>173</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
